--- a/Och/10/лаб1,3,4.xlsx
+++ b/Och/10/лаб1,3,4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Och\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCDA908-8445-47C6-B829-41A811F4AEE6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67868663-FB4A-4A91-8F47-3A8BBB0D7681}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>Компы</t>
   </si>
@@ -268,9 +268,6 @@
     <t>реализации</t>
   </si>
   <si>
-    <t>П6</t>
-  </si>
-  <si>
     <t>Лаб 4</t>
   </si>
   <si>
@@ -299,6 +296,15 @@
   </si>
   <si>
     <t>Производительность</t>
+  </si>
+  <si>
+    <t>Катран</t>
+  </si>
+  <si>
+    <t>Пилот 1,2</t>
+  </si>
+  <si>
+    <t>Пилот 2</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +383,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -428,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -613,36 +627,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -717,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -778,22 +762,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,12 +817,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -867,58 +849,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -943,24 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,32 +884,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,6 +929,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,8 +1320,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M17" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="67" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N34" sqref="N33:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1352,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3">
@@ -1385,10 +1376,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <f>(2.94+(0.032*C2) + (2.9*D2) + (2.62*E2))*E3</f>
         <v>33987</v>
       </c>
@@ -1409,7 +1400,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3">
@@ -1434,7 +1425,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3"/>
@@ -1444,7 +1435,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3"/>
@@ -1454,15 +1445,15 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <f>C8*E9/E10</f>
         <v>77220</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -1478,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3">
@@ -1492,7 +1483,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="4">
@@ -1503,7 +1494,7 @@
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3"/>
@@ -1513,7 +1504,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="3"/>
@@ -1523,10 +1514,10 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <f>C15*E16/E17</f>
         <v>51660</v>
       </c>
@@ -1536,20 +1527,38 @@
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="48"/>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="48" t="s">
         <v>42</v>
       </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -1572,25 +1581,25 @@
       <c r="G23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="69" t="s">
+      <c r="J23" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="69" t="s">
+      <c r="K23" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="60" t="s">
+      <c r="M23" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="70" t="s">
+      <c r="N23" s="68" t="s">
         <v>50</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -1622,44 +1631,44 @@
       <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="46">
         <v>10</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="46">
         <v>3</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="46">
         <v>2</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <v>3</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="46">
         <v>3</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="47">
         <v>1</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="63">
         <f>SUM(B24:G24)+1</f>
         <v>23</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="69">
         <v>1418</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="69">
         <v>752</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24" s="59">
         <v>1418</v>
       </c>
-      <c r="L24" s="71">
+      <c r="L24" s="69">
         <v>1048</v>
       </c>
-      <c r="M24" s="71">
+      <c r="M24" s="69">
         <v>1418</v>
       </c>
-      <c r="N24" s="77">
+      <c r="N24" s="75">
         <v>1418</v>
       </c>
       <c r="O24">
@@ -1701,40 +1710,40 @@
       <c r="A25" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="46">
         <v>6</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="46">
         <v>2</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="46">
         <v>1</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <v>2</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="46">
         <v>2</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="47">
         <v>1</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="69">
         <v>210</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="59">
         <v>210</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="59">
         <v>190</v>
       </c>
-      <c r="L25" s="61">
+      <c r="L25" s="59">
         <v>210</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M25" s="59">
         <v>190</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="74">
         <v>210</v>
       </c>
       <c r="O25">
@@ -1773,31 +1782,31 @@
       <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="46">
         <f>B24</f>
         <v>10</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="46">
         <f t="shared" ref="C26:G26" si="2">C24</f>
         <v>3</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="46">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="46">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="69">
         <v>100</v>
       </c>
       <c r="J26" s="3"/>
@@ -1832,7 +1841,7 @@
       <c r="V26" s="2">
         <v>100</v>
       </c>
-      <c r="W26" s="50" t="s">
+      <c r="W26" s="48" t="s">
         <v>51</v>
       </c>
       <c r="Y26" s="7">
@@ -1844,35 +1853,35 @@
       <c r="A27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="46">
         <f>B24</f>
         <v>10</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="46">
         <f t="shared" ref="C27:G27" si="4">C24</f>
         <v>3</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="46">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="46">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="46">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="70">
         <f>800+1200</f>
         <v>2000</v>
       </c>
-      <c r="J27" s="73" t="s">
+      <c r="J27" s="71" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="23"/>
@@ -1906,7 +1915,7 @@
       <c r="V27" s="2">
         <v>1200</v>
       </c>
-      <c r="W27" s="50" t="s">
+      <c r="W27" s="48" t="s">
         <v>44</v>
       </c>
       <c r="Y27" s="7">
@@ -1918,151 +1927,150 @@
       <c r="A28" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="34">
-        <v>12953</v>
-      </c>
-      <c r="C28" s="34">
-        <f>Стоимость_разработки!F11</f>
+      <c r="B28" s="131">
+        <v>19180</v>
+      </c>
+      <c r="C28" s="132">
         <v>16600</v>
       </c>
-      <c r="D28" s="34">
-        <v>12667</v>
-      </c>
-      <c r="E28" s="34">
-        <v>10160</v>
-      </c>
-      <c r="F28" s="34">
-        <v>18857</v>
-      </c>
-      <c r="G28" s="35">
-        <v>12953</v>
+      <c r="D28" s="132">
+        <v>19000</v>
+      </c>
+      <c r="E28" s="132">
+        <v>17780</v>
+      </c>
+      <c r="F28" s="132">
+        <v>23571</v>
+      </c>
+      <c r="G28" s="132">
+        <v>20475</v>
       </c>
       <c r="O28" s="7">
-        <f>B28</f>
-        <v>12953</v>
+        <f>F53</f>
+        <v>12952.727272727274</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" ref="P28:T28" si="6">C28</f>
+        <f>G52</f>
         <v>16600</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="6"/>
-        <v>12667</v>
+        <f>H54</f>
+        <v>12666.666666666668</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="6"/>
-        <v>10160</v>
+        <f>I53</f>
+        <v>6003.6363636363631</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="6"/>
-        <v>18857</v>
+        <f>J52</f>
+        <v>18856.800000000003</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="6"/>
-        <v>12953</v>
+        <f>K53</f>
+        <v>12952.727272727274</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
       </c>
       <c r="Y28" s="7">
         <f>SUM(O28:T28)</f>
-        <v>84190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>80032.557575757572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="47">
-        <f>T46</f>
-        <v>15105.333333333334</v>
-      </c>
-      <c r="W29" s="36"/>
-      <c r="Y29" s="47">
+      <c r="V29" s="131">
+        <f>T60</f>
+        <v>15105</v>
+      </c>
+      <c r="W29" s="34"/>
+      <c r="Y29" s="45">
         <f>V29</f>
-        <v>15105.333333333334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>15105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M30" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="62">
-        <f>O31/B32</f>
-        <v>4939.3</v>
-      </c>
-      <c r="P30" s="62">
-        <f>P31/C32</f>
+      <c r="O30" s="60">
+        <f t="shared" ref="O30:T30" si="6">O31/B32</f>
+        <v>4939.272727272727</v>
+      </c>
+      <c r="P30" s="60">
+        <f t="shared" si="6"/>
         <v>8525.3333333333339</v>
       </c>
-      <c r="Q30" s="62">
-        <f>Q31/D32</f>
-        <v>9946.5</v>
-      </c>
-      <c r="R30" s="62">
-        <f>R31/E32</f>
-        <v>6674.666666666667</v>
-      </c>
-      <c r="S30" s="62">
-        <f>S31/F32</f>
-        <v>9930.3333333333339</v>
-      </c>
-      <c r="T30" s="62">
-        <f>T31/G32</f>
-        <v>16681</v>
+      <c r="Q30" s="60">
+        <f t="shared" si="6"/>
+        <v>9946.3333333333339</v>
+      </c>
+      <c r="R30" s="60">
+        <f t="shared" si="6"/>
+        <v>5289.212121212121</v>
+      </c>
+      <c r="S30" s="60">
+        <f t="shared" si="6"/>
+        <v>9930.2666666666682</v>
+      </c>
+      <c r="T30" s="60">
+        <f t="shared" si="6"/>
+        <v>16680.727272727272</v>
       </c>
       <c r="U30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="47">
-        <f>U51</f>
-        <v>24131.25</v>
-      </c>
-      <c r="W30" s="36"/>
-      <c r="Y30" s="47">
+      <c r="V30" s="133">
+        <f>T61</f>
+        <v>24131</v>
+      </c>
+      <c r="W30" s="34"/>
+      <c r="Y30" s="45">
         <f>V30</f>
-        <v>24131.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>24131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M31" t="s">
         <v>13</v>
       </c>
       <c r="O31" s="7">
-        <f>SUM(O24:O28)</f>
-        <v>49393</v>
+        <f t="shared" ref="O31:T31" si="7">SUM(O24:O28)</f>
+        <v>49392.727272727272</v>
       </c>
       <c r="P31" s="7">
-        <f>SUM(P24:P28)</f>
+        <f t="shared" si="7"/>
         <v>25576</v>
       </c>
       <c r="Q31" s="7">
-        <f>SUM(Q24:Q28)</f>
-        <v>19893</v>
+        <f t="shared" si="7"/>
+        <v>19892.666666666668</v>
       </c>
       <c r="R31" s="7">
-        <f>SUM(R24:R28)</f>
-        <v>20024</v>
+        <f t="shared" si="7"/>
+        <v>15867.636363636364</v>
       </c>
       <c r="S31" s="7">
-        <f>SUM(S24:S28)</f>
-        <v>29791</v>
+        <f t="shared" si="7"/>
+        <v>29790.800000000003</v>
       </c>
       <c r="T31" s="7">
-        <f>SUM(T24:T28)</f>
-        <v>16681</v>
+        <f t="shared" si="7"/>
+        <v>16680.727272727272</v>
       </c>
       <c r="U31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="47">
-        <f>V50</f>
-        <v>12523.636363636362</v>
-      </c>
-      <c r="W31" s="36"/>
-      <c r="Y31" s="47">
+      <c r="V31" s="133">
+        <f>T62</f>
+        <v>12524</v>
+      </c>
+      <c r="W31" s="34"/>
+      <c r="Y31" s="45">
         <f>V31</f>
-        <v>12523.636363636362</v>
+        <v>12524</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2074,83 +2082,83 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:G32" si="7">C24</f>
+        <f t="shared" ref="C32:G32" si="8">C24</f>
         <v>3</v>
       </c>
       <c r="D32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V32" s="46">
+      <c r="V32" s="44">
         <f>SUM(V24:V31)</f>
-        <v>54478.219696969696</v>
+        <v>54478</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W33" s="8">
         <f>SUM(O31:T31,V32)</f>
-        <v>215836.2196969697</v>
+        <v>211678.55757575759</v>
       </c>
       <c r="Y33" s="8">
         <f>SUM(Y24:Y31)</f>
-        <v>215836.2196969697</v>
+        <v>211678.55757575756</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
-      <c r="N34" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="O34" s="117"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="154"/>
+      <c r="N34" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" s="136"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="141"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="117"/>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
       <c r="Y34" s="18"/>
     </row>
     <row r="35" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="101" t="s">
+      <c r="D35" s="134"/>
+      <c r="E35" s="99" t="s">
         <v>55</v>
       </c>
       <c r="F35" s="3"/>
@@ -2158,10 +2166,10 @@
       <c r="H35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="116"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="148"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2169,61 +2177,61 @@
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
       <c r="T35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="V35" s="88" t="s">
         <v>87</v>
-      </c>
-      <c r="V35" s="90" t="s">
-        <v>88</v>
       </c>
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
     </row>
     <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="76">
         <f>Стоимость_разработки!M3</f>
         <v>35</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C36" s="76">
         <f>B$28/B36</f>
-        <v>370.08571428571429</v>
-      </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="86">
+        <v>548</v>
+      </c>
+      <c r="D36" s="134"/>
+      <c r="E36" s="84">
         <v>254</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="43" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="82">
-        <f>MAX(I45:I47)</f>
-        <v>116.11428571428571</v>
-      </c>
-      <c r="I36" s="108">
-        <v>40</v>
+      <c r="H36" s="80">
+        <f>I46</f>
+        <v>92.36363636363636</v>
+      </c>
+      <c r="I36" s="104">
+        <v>29</v>
       </c>
       <c r="J36" s="3" t="str">
         <f>F36</f>
         <v>п4</v>
       </c>
-      <c r="K36" s="115"/>
-      <c r="L36" s="116"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="148"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="45" t="s">
+      <c r="N36" s="43" t="s">
         <v>60</v>
       </c>
       <c r="O36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="18"/>
@@ -2238,7 +2246,7 @@
         <f>E3</f>
         <v>50</v>
       </c>
-      <c r="V36" s="148">
+      <c r="V36" s="121">
         <f>T36/U36</f>
         <v>679.74</v>
       </c>
@@ -2246,45 +2254,45 @@
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="78">
+      <c r="B37" s="76">
         <f>Стоимость_разработки!M4</f>
         <v>40</v>
       </c>
-      <c r="C37" s="78">
+      <c r="C37" s="76">
         <f>C$28/B37</f>
         <v>415</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="86">
+      <c r="D37" s="134"/>
+      <c r="E37" s="84">
         <v>316.66666666666669</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="43" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="82">
+      <c r="H37" s="80">
         <f>MAX(H45:H47)</f>
-        <v>168.89333333333335</v>
-      </c>
-      <c r="I37" s="108">
+        <v>253.33333333333334</v>
+      </c>
+      <c r="I37" s="104">
         <v>40</v>
       </c>
       <c r="J37" s="3" t="str">
-        <f t="shared" ref="J37:J41" si="8">F37</f>
+        <f t="shared" ref="J37:J41" si="9">F37</f>
         <v>п3</v>
       </c>
-      <c r="K37" s="115"/>
-      <c r="L37" s="116"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="148"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="45">
+      <c r="N37" s="43">
         <v>1</v>
       </c>
-      <c r="O37" s="146">
+      <c r="O37" s="119">
         <v>2.25</v>
       </c>
       <c r="P37" s="5">
@@ -2305,58 +2313,58 @@
         <f>E9</f>
         <v>30</v>
       </c>
-      <c r="V37" s="148">
-        <f t="shared" ref="V37:V38" si="9">T37/U37</f>
+      <c r="V37" s="121">
+        <f t="shared" ref="V37:V38" si="10">T37/U37</f>
         <v>2574</v>
       </c>
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="76">
         <f>Стоимость_разработки!M5</f>
         <v>60</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C38" s="76">
         <f>D$28/B38</f>
-        <v>211.11666666666667</v>
-      </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="86">
+        <v>316.66666666666669</v>
+      </c>
+      <c r="D38" s="134"/>
+      <c r="E38" s="84">
         <v>415</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="43" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="82">
+      <c r="H38" s="80">
         <v>277</v>
       </c>
-      <c r="I38" s="108">
+      <c r="I38" s="104">
         <v>24</v>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>п2</v>
       </c>
-      <c r="K38" s="115"/>
-      <c r="L38" s="116"/>
+      <c r="K38" s="141"/>
+      <c r="L38" s="148"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="151">
+      <c r="N38" s="124">
         <v>8</v>
       </c>
-      <c r="O38" s="152">
+      <c r="O38" s="125">
         <v>2.25</v>
       </c>
-      <c r="P38" s="82">
+      <c r="P38" s="80">
         <v>35</v>
       </c>
-      <c r="Q38" s="82" t="s">
+      <c r="Q38" s="80" t="s">
         <v>19</v>
       </c>
       <c r="R38" s="18"/>
@@ -2371,198 +2379,198 @@
         <f>E16</f>
         <v>30</v>
       </c>
-      <c r="V38" s="148">
-        <f t="shared" si="9"/>
+      <c r="V38" s="121">
+        <f t="shared" si="10"/>
         <v>1722</v>
       </c>
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
     </row>
     <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="78">
+      <c r="B39" s="76">
         <f>Стоимость_разработки!M6</f>
         <v>70</v>
       </c>
-      <c r="C39" s="78">
+      <c r="C39" s="76">
         <f>E$28/B39</f>
-        <v>145.14285714285714</v>
-      </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="86">
-        <v>471.42857142857144</v>
-      </c>
-      <c r="F39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="134"/>
+      <c r="E39" s="84">
+        <v>471.42</v>
+      </c>
+      <c r="F39" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="82">
+      <c r="H39" s="80">
         <v>314</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="104">
         <v>24</v>
       </c>
       <c r="J39" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>п5</v>
       </c>
-      <c r="K39" s="115"/>
-      <c r="L39" s="116"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="148"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="45">
+      <c r="N39" s="43">
         <v>15</v>
       </c>
-      <c r="O39" s="146">
+      <c r="O39" s="119">
         <v>2.25</v>
       </c>
       <c r="P39" s="5">
         <v>32</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="90"/>
+      <c r="V39" s="88"/>
       <c r="W39" s="18"/>
       <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="78">
+      <c r="B40" s="76">
         <f>Стоимость_разработки!M7</f>
         <v>50</v>
       </c>
-      <c r="C40" s="78">
+      <c r="C40" s="76">
         <f>F$28/B40</f>
-        <v>377.14</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="86">
+        <v>471.42</v>
+      </c>
+      <c r="D40" s="134"/>
+      <c r="E40" s="84">
         <v>548</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="82">
+      <c r="H40" s="80">
         <f>MIN(F45:F47)</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="I40" s="108">
+        <v>199.27272727272728</v>
+      </c>
+      <c r="I40" s="104">
         <v>29</v>
       </c>
       <c r="J40" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>п1</v>
       </c>
-      <c r="K40" s="115"/>
-      <c r="L40" s="116"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="148"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="45">
+      <c r="N40" s="43">
         <v>17</v>
       </c>
-      <c r="O40" s="146">
+      <c r="O40" s="119">
         <v>1.25</v>
       </c>
       <c r="P40" s="5">
         <v>18</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="102"/>
+      <c r="V40" s="100"/>
       <c r="W40" s="18"/>
       <c r="X40" s="18"/>
     </row>
     <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="78">
+      <c r="B41" s="76">
         <f>Стоимость_разработки!M8</f>
         <v>35</v>
       </c>
-      <c r="C41" s="78">
-        <f t="shared" ref="C41:E41" si="10">B$28/B41</f>
-        <v>370.08571428571429</v>
-      </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="86">
+      <c r="C41" s="76">
+        <f t="shared" ref="C41" si="11">B$28/B41</f>
         <v>548</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="D41" s="134"/>
+      <c r="E41" s="84">
+        <v>548</v>
+      </c>
+      <c r="F41" s="43" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="82">
+      <c r="H41" s="80">
         <f>MIN(K45:K47)</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="I41" s="108">
+        <v>199.27272727272728</v>
+      </c>
+      <c r="I41" s="104">
         <v>29</v>
       </c>
       <c r="J41" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>п6</v>
       </c>
-      <c r="K41" s="115"/>
-      <c r="L41" s="116"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="148"/>
       <c r="M41" s="18"/>
-      <c r="N41" s="151">
+      <c r="N41" s="124">
         <v>19</v>
       </c>
-      <c r="O41" s="152">
+      <c r="O41" s="125">
         <v>2.75</v>
       </c>
-      <c r="P41" s="82">
+      <c r="P41" s="80">
         <v>20</v>
       </c>
-      <c r="Q41" s="82" t="s">
+      <c r="Q41" s="80" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
-      <c r="V41" s="102"/>
+      <c r="V41" s="100"/>
       <c r="W41" s="18"/>
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="122"/>
+      <c r="A42" s="145"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="152"/>
       <c r="M42" s="18"/>
-      <c r="N42" s="45">
+      <c r="N42" s="43">
         <v>40</v>
       </c>
-      <c r="O42" s="146">
+      <c r="O42" s="119">
         <v>1</v>
       </c>
       <c r="P42" s="5">
@@ -2575,7 +2583,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
-      <c r="V42" s="102"/>
+      <c r="V42" s="100"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
     </row>
@@ -2589,69 +2597,69 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="112"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="122"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="152"/>
       <c r="M43" s="18"/>
-      <c r="N43" s="151">
+      <c r="N43" s="124">
         <v>40</v>
       </c>
-      <c r="O43" s="152">
+      <c r="O43" s="125">
         <v>1.6</v>
       </c>
-      <c r="P43" s="82">
+      <c r="P43" s="80">
         <v>15</v>
       </c>
-      <c r="Q43" s="153" t="s">
-        <v>89</v>
+      <c r="Q43" s="126" t="s">
+        <v>88</v>
       </c>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
-      <c r="V43" s="102"/>
+      <c r="V43" s="100"/>
       <c r="W43" s="18"/>
       <c r="X43" s="18"/>
     </row>
     <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="109">
+      <c r="A44" s="105">
         <v>24</v>
       </c>
-      <c r="B44" s="110">
+      <c r="B44" s="106">
         <v>1.5</v>
       </c>
-      <c r="C44" s="110">
+      <c r="C44" s="106">
         <v>60</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="79" t="s">
+      <c r="D44" s="134"/>
+      <c r="E44" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="80" t="s">
+      <c r="F44" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="80" t="s">
+      <c r="G44" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="80" t="s">
+      <c r="H44" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="80" t="s">
+      <c r="I44" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="80" t="s">
+      <c r="J44" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="123"/>
+      <c r="L44" s="153"/>
       <c r="M44" s="18"/>
       <c r="N44" s="32"/>
       <c r="O44" s="18"/>
@@ -2661,53 +2669,53 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
-      <c r="V44" s="102"/>
+      <c r="V44" s="100"/>
       <c r="W44" s="18"/>
       <c r="X44" s="18"/>
     </row>
     <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="109">
+      <c r="A45" s="105">
         <v>29</v>
       </c>
-      <c r="B45" s="110">
+      <c r="B45" s="106">
         <v>2.75</v>
       </c>
-      <c r="C45" s="110">
+      <c r="C45" s="106">
         <v>65</v>
       </c>
-      <c r="D45" s="112"/>
-      <c r="E45" s="107">
+      <c r="D45" s="134"/>
+      <c r="E45" s="103">
         <f>A44</f>
         <v>24</v>
       </c>
-      <c r="F45" s="87">
+      <c r="F45" s="85">
         <f>$C$36/$B44</f>
-        <v>246.72380952380954</v>
-      </c>
-      <c r="G45" s="97">
+        <v>365.33333333333331</v>
+      </c>
+      <c r="G45" s="95">
         <f>$C$37/$B44</f>
         <v>276.66666666666669</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="86">
         <f>$C$38/$B44</f>
-        <v>140.74444444444444</v>
-      </c>
-      <c r="I45" s="88">
+        <v>211.11111111111111</v>
+      </c>
+      <c r="I45" s="86">
         <f>$C$39/$B44</f>
-        <v>96.761904761904759</v>
-      </c>
-      <c r="J45" s="97">
+        <v>169.33333333333334</v>
+      </c>
+      <c r="J45" s="95">
         <f>$C$40/$B44</f>
-        <v>251.42666666666665</v>
-      </c>
-      <c r="K45" s="89">
+        <v>314.28000000000003</v>
+      </c>
+      <c r="K45" s="87">
         <f>$C$41/$B44</f>
-        <v>246.72380952380954</v>
-      </c>
-      <c r="L45" s="123"/>
+        <v>365.33333333333331</v>
+      </c>
+      <c r="L45" s="153"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="79" t="s">
-        <v>85</v>
+      <c r="N45" s="77" t="s">
+        <v>84</v>
       </c>
       <c r="O45" s="20" t="s">
         <v>19</v>
@@ -2719,8 +2727,8 @@
         <v>21</v>
       </c>
       <c r="R45" s="18"/>
-      <c r="S45" s="79" t="s">
-        <v>86</v>
+      <c r="S45" s="77" t="s">
+        <v>85</v>
       </c>
       <c r="T45" s="20" t="s">
         <v>19</v>
@@ -2735,23 +2743,23 @@
       <c r="X45" s="18"/>
     </row>
     <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="109">
+      <c r="A46" s="105">
         <v>40</v>
       </c>
-      <c r="B46" s="110">
+      <c r="B46" s="106">
         <v>1.25</v>
       </c>
-      <c r="C46" s="110">
+      <c r="C46" s="106">
         <v>50</v>
       </c>
-      <c r="D46" s="112"/>
-      <c r="E46" s="83">
-        <f t="shared" ref="E46:E47" si="11">A45</f>
+      <c r="D46" s="134"/>
+      <c r="E46" s="81">
+        <f t="shared" ref="E46:E47" si="12">A45</f>
         <v>29</v>
       </c>
-      <c r="F46" s="96">
-        <f t="shared" ref="F46:F47" si="12">$C$36/$B45</f>
-        <v>134.57662337662339</v>
+      <c r="F46" s="94">
+        <f>$C$36/$B45</f>
+        <v>199.27272727272728</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" ref="G46:G47" si="13">$C$37/$B45</f>
@@ -2759,50 +2767,50 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" ref="H46:H47" si="14">$C$38/$B45</f>
-        <v>76.769696969696966</v>
-      </c>
-      <c r="I46" s="5">
+        <v>115.15151515151516</v>
+      </c>
+      <c r="I46" s="80">
         <f t="shared" ref="I46:I47" si="15">$C$39/$B45</f>
-        <v>52.779220779220779</v>
+        <v>92.36363636363636</v>
       </c>
       <c r="J46" s="5">
         <f t="shared" ref="J46:J47" si="16">$C$40/$B45</f>
-        <v>137.14181818181817</v>
-      </c>
-      <c r="K46" s="84">
+        <v>171.42545454545456</v>
+      </c>
+      <c r="K46" s="82">
         <f t="shared" ref="K46:K47" si="17">$C$41/$B45</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="L46" s="123"/>
+        <v>199.27272727272728</v>
+      </c>
+      <c r="L46" s="153"/>
       <c r="M46" s="18"/>
-      <c r="N46" s="99">
+      <c r="N46" s="97">
         <v>1</v>
       </c>
-      <c r="O46" s="147">
+      <c r="O46" s="120">
         <f>$V$36/O37</f>
         <v>302.10666666666668</v>
       </c>
-      <c r="P46" s="87">
+      <c r="P46" s="85">
         <f>$V$37/O37</f>
         <v>1144</v>
       </c>
-      <c r="Q46" s="94">
+      <c r="Q46" s="92">
         <f>$V$38/O37</f>
         <v>765.33333333333337</v>
       </c>
       <c r="R46" s="18"/>
-      <c r="S46" s="99">
+      <c r="S46" s="97">
         <v>1</v>
       </c>
-      <c r="T46" s="147">
+      <c r="T46" s="120">
         <f>O46*P37</f>
         <v>15105.333333333334</v>
       </c>
-      <c r="U46" s="87">
+      <c r="U46" s="85">
         <f>P46*P37</f>
         <v>57200</v>
       </c>
-      <c r="V46" s="94">
+      <c r="V46" s="92">
         <f>Q46*P37</f>
         <v>38266.666666666672</v>
       </c>
@@ -2810,274 +2818,274 @@
       <c r="X46" s="18"/>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="107">
-        <f t="shared" si="11"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="103">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="F47" s="91">
-        <f t="shared" si="12"/>
-        <v>296.06857142857143</v>
-      </c>
-      <c r="G47" s="92">
+      <c r="F47" s="89">
+        <f t="shared" ref="F47" si="18">$C$36/$B46</f>
+        <v>438.4</v>
+      </c>
+      <c r="G47" s="90">
         <f t="shared" si="13"/>
         <v>332</v>
       </c>
-      <c r="H47" s="85">
+      <c r="H47" s="83">
         <f t="shared" si="14"/>
-        <v>168.89333333333335</v>
-      </c>
-      <c r="I47" s="85">
+        <v>253.33333333333334</v>
+      </c>
+      <c r="I47" s="90">
         <f t="shared" si="15"/>
-        <v>116.11428571428571</v>
-      </c>
-      <c r="J47" s="92">
+        <v>203.2</v>
+      </c>
+      <c r="J47" s="90">
         <f t="shared" si="16"/>
-        <v>301.71199999999999</v>
-      </c>
-      <c r="K47" s="93">
+        <v>377.13600000000002</v>
+      </c>
+      <c r="K47" s="91">
         <f t="shared" si="17"/>
-        <v>296.06857142857143</v>
-      </c>
-      <c r="L47" s="123"/>
+        <v>438.4</v>
+      </c>
+      <c r="L47" s="153"/>
       <c r="M47" s="18"/>
-      <c r="N47" s="45">
+      <c r="N47" s="43">
         <v>8</v>
       </c>
-      <c r="O47" s="87">
-        <f t="shared" ref="O47:O51" si="18">$V$36/O38</f>
+      <c r="O47" s="85">
+        <f t="shared" ref="O47:O51" si="19">$V$36/O38</f>
         <v>302.10666666666668</v>
       </c>
-      <c r="P47" s="87">
-        <f t="shared" ref="P47:P51" si="19">$V$37/O38</f>
+      <c r="P47" s="85">
+        <f t="shared" ref="P47:P50" si="20">$V$37/O38</f>
         <v>1144</v>
       </c>
-      <c r="Q47" s="94">
-        <f t="shared" ref="Q47:Q51" si="20">$V$38/O38</f>
+      <c r="Q47" s="92">
+        <f t="shared" ref="Q47:Q50" si="21">$V$38/O38</f>
         <v>765.33333333333337</v>
       </c>
       <c r="R47" s="18"/>
-      <c r="S47" s="45">
+      <c r="S47" s="43">
         <v>8</v>
       </c>
-      <c r="T47" s="87">
-        <f t="shared" ref="T47:T51" si="21">O47*P38</f>
+      <c r="T47" s="85">
+        <f t="shared" ref="T47:T51" si="22">O47*P38</f>
         <v>10573.733333333334</v>
       </c>
-      <c r="U47" s="87">
-        <f t="shared" ref="U47:U51" si="22">P47*P38</f>
+      <c r="U47" s="85">
+        <f t="shared" ref="U47:U50" si="23">P47*P38</f>
         <v>40040</v>
       </c>
-      <c r="V47" s="94">
-        <f t="shared" ref="V47:V51" si="23">Q47*P38</f>
+      <c r="V47" s="92">
+        <f t="shared" ref="V47:V50" si="24">Q47*P38</f>
         <v>26786.666666666668</v>
       </c>
       <c r="W47" s="18"/>
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="111"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="116"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="148"/>
       <c r="M48" s="18"/>
-      <c r="N48" s="45">
+      <c r="N48" s="43">
         <v>15</v>
       </c>
-      <c r="O48" s="87">
-        <f t="shared" si="18"/>
+      <c r="O48" s="85">
+        <f t="shared" si="19"/>
         <v>302.10666666666668</v>
       </c>
-      <c r="P48" s="87">
-        <f t="shared" si="19"/>
+      <c r="P48" s="85">
+        <f t="shared" si="20"/>
         <v>1144</v>
       </c>
-      <c r="Q48" s="94">
-        <f t="shared" si="20"/>
+      <c r="Q48" s="92">
+        <f t="shared" si="21"/>
         <v>765.33333333333337</v>
       </c>
       <c r="R48" s="18"/>
-      <c r="S48" s="45">
+      <c r="S48" s="43">
         <v>15</v>
       </c>
-      <c r="T48" s="87">
-        <f t="shared" si="21"/>
+      <c r="T48" s="85">
+        <f t="shared" si="22"/>
         <v>9667.4133333333339</v>
       </c>
-      <c r="U48" s="87">
-        <f t="shared" si="22"/>
+      <c r="U48" s="85">
+        <f t="shared" si="23"/>
         <v>36608</v>
       </c>
-      <c r="V48" s="94">
-        <f t="shared" si="23"/>
+      <c r="V48" s="92">
+        <f t="shared" si="24"/>
         <v>24490.666666666668</v>
       </c>
       <c r="W48" s="18"/>
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="116"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
+      <c r="K49" s="141"/>
+      <c r="L49" s="148"/>
       <c r="M49" s="18"/>
-      <c r="N49" s="45">
+      <c r="N49" s="43">
         <v>17</v>
       </c>
-      <c r="O49" s="87">
-        <f t="shared" si="18"/>
+      <c r="O49" s="85">
+        <f t="shared" si="19"/>
         <v>543.79200000000003</v>
       </c>
-      <c r="P49" s="87">
-        <f t="shared" si="19"/>
+      <c r="P49" s="85">
+        <f t="shared" si="20"/>
         <v>2059.1999999999998</v>
       </c>
-      <c r="Q49" s="94">
-        <f t="shared" si="20"/>
+      <c r="Q49" s="92">
+        <f t="shared" si="21"/>
         <v>1377.6</v>
       </c>
       <c r="R49" s="18"/>
-      <c r="S49" s="45">
+      <c r="S49" s="43">
         <v>17</v>
       </c>
-      <c r="T49" s="87">
-        <f t="shared" si="21"/>
+      <c r="T49" s="85">
+        <f t="shared" si="22"/>
         <v>9788.2560000000012</v>
       </c>
-      <c r="U49" s="87">
-        <f t="shared" si="22"/>
+      <c r="U49" s="85">
+        <f t="shared" si="23"/>
         <v>37065.599999999999</v>
       </c>
-      <c r="V49" s="94">
-        <f t="shared" si="23"/>
+      <c r="V49" s="92">
+        <f t="shared" si="24"/>
         <v>24796.799999999999</v>
       </c>
       <c r="W49" s="18"/>
       <c r="X49" s="18"/>
     </row>
     <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="116"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="148"/>
       <c r="M50" s="18"/>
-      <c r="N50" s="45">
+      <c r="N50" s="43">
         <v>19</v>
       </c>
-      <c r="O50" s="87">
-        <f t="shared" si="18"/>
+      <c r="O50" s="85">
+        <f t="shared" si="19"/>
         <v>247.17818181818183</v>
       </c>
-      <c r="P50" s="87">
-        <f t="shared" si="19"/>
+      <c r="P50" s="85">
+        <f t="shared" si="20"/>
         <v>936</v>
       </c>
-      <c r="Q50" s="154">
-        <f t="shared" si="20"/>
+      <c r="Q50" s="127">
+        <f t="shared" si="21"/>
         <v>626.18181818181813</v>
       </c>
       <c r="R50" s="18"/>
-      <c r="S50" s="45">
+      <c r="S50" s="43">
         <v>19</v>
       </c>
-      <c r="T50" s="87">
-        <f t="shared" si="21"/>
+      <c r="T50" s="85">
+        <f t="shared" si="22"/>
         <v>4943.5636363636368</v>
       </c>
-      <c r="U50" s="87">
-        <f t="shared" si="22"/>
+      <c r="U50" s="85">
+        <f t="shared" si="23"/>
         <v>18720</v>
       </c>
-      <c r="V50" s="154">
-        <f t="shared" si="23"/>
+      <c r="V50" s="127">
+        <f t="shared" si="24"/>
         <v>12523.636363636362</v>
       </c>
       <c r="W50" s="18"/>
       <c r="X50" s="18"/>
     </row>
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="111"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="79" t="s">
+      <c r="A51" s="145"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="80" t="s">
+      <c r="F51" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="80" t="s">
+      <c r="G51" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="80" t="s">
+      <c r="J51" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="81" t="s">
+      <c r="K51" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="116"/>
+      <c r="L51" s="148"/>
       <c r="M51" s="18"/>
-      <c r="N51" s="103">
+      <c r="N51" s="101">
         <v>40</v>
       </c>
-      <c r="O51" s="149">
-        <f t="shared" si="18"/>
+      <c r="O51" s="122">
+        <f t="shared" si="19"/>
         <v>679.74</v>
       </c>
-      <c r="P51" s="155">
+      <c r="P51" s="128">
         <f>$V$37/O43</f>
         <v>1608.75</v>
       </c>
-      <c r="Q51" s="150">
+      <c r="Q51" s="123">
         <f>$V$38/O43</f>
         <v>1076.25</v>
       </c>
       <c r="R51" s="18"/>
-      <c r="S51" s="103">
+      <c r="S51" s="101">
         <v>40</v>
       </c>
-      <c r="T51" s="149">
-        <f t="shared" si="21"/>
+      <c r="T51" s="122">
+        <f t="shared" si="22"/>
         <v>16993.5</v>
       </c>
-      <c r="U51" s="155">
+      <c r="U51" s="128">
         <f>P51*P43</f>
         <v>24131.25</v>
       </c>
-      <c r="V51" s="150">
+      <c r="V51" s="123">
         <f>Q51*P43</f>
         <v>16143.75</v>
       </c>
@@ -3085,39 +3093,39 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="111"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="107">
+      <c r="A52" s="145"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="103">
         <f>A44</f>
         <v>24</v>
       </c>
       <c r="F52" s="5">
         <f>F45*$C$44</f>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="G52" s="82">
-        <f t="shared" ref="G52:K52" si="24">G45*$C$44</f>
+        <v>21920</v>
+      </c>
+      <c r="G52" s="80">
+        <f t="shared" ref="G52:K52" si="25">G45*$C$44</f>
         <v>16600</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="24"/>
-        <v>8444.6666666666661</v>
+        <f t="shared" si="25"/>
+        <v>12666.666666666666</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="24"/>
-        <v>5805.7142857142853</v>
-      </c>
-      <c r="J52" s="82">
-        <f t="shared" si="24"/>
-        <v>15085.599999999999</v>
-      </c>
-      <c r="K52" s="94">
-        <f t="shared" si="24"/>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="L52" s="116"/>
+        <f t="shared" si="25"/>
+        <v>10160</v>
+      </c>
+      <c r="J52" s="80">
+        <f t="shared" si="25"/>
+        <v>18856.800000000003</v>
+      </c>
+      <c r="K52" s="92">
+        <f t="shared" si="25"/>
+        <v>21920</v>
+      </c>
+      <c r="L52" s="148"/>
       <c r="M52" s="18"/>
       <c r="N52" s="32"/>
       <c r="O52" s="18"/>
@@ -3127,46 +3135,46 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
-      <c r="V52" s="102"/>
+      <c r="V52" s="100"/>
       <c r="W52" s="18"/>
       <c r="X52" s="18"/>
     </row>
     <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="111"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="107">
-        <f t="shared" ref="E53:E54" si="25">A45</f>
+      <c r="A53" s="145"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="103">
+        <f t="shared" ref="E53:E54" si="26">A45</f>
         <v>29</v>
       </c>
-      <c r="F53" s="82">
+      <c r="F53" s="80">
         <f>$C$45*F46</f>
-        <v>8747.4805194805194</v>
+        <v>12952.727272727274</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" ref="G53:K53" si="26">$C$45*G46</f>
+        <f t="shared" ref="G53:K53" si="27">$C$45*G46</f>
         <v>9809.0909090909081</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="26"/>
-        <v>4990.030303030303</v>
-      </c>
-      <c r="I53" s="5">
-        <f t="shared" si="26"/>
-        <v>3430.6493506493507</v>
+        <f t="shared" si="27"/>
+        <v>7484.848484848485</v>
+      </c>
+      <c r="I53" s="80">
+        <f t="shared" si="27"/>
+        <v>6003.6363636363631</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="26"/>
-        <v>8914.2181818181816</v>
-      </c>
-      <c r="K53" s="98">
-        <f t="shared" si="26"/>
-        <v>8747.4805194805194</v>
-      </c>
-      <c r="L53" s="116"/>
+        <f t="shared" si="27"/>
+        <v>11142.654545454547</v>
+      </c>
+      <c r="K53" s="96">
+        <f t="shared" si="27"/>
+        <v>12952.727272727274</v>
+      </c>
+      <c r="L53" s="148"/>
       <c r="M53" s="18"/>
-      <c r="N53" s="45"/>
+      <c r="N53" s="43"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
@@ -3174,46 +3182,46 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
-      <c r="V53" s="102"/>
+      <c r="V53" s="100"/>
       <c r="W53" s="18"/>
       <c r="X53" s="18"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="111"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="107">
-        <f t="shared" si="25"/>
+      <c r="A54" s="145"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="103">
+        <f t="shared" si="26"/>
         <v>40</v>
       </c>
-      <c r="F54" s="92">
+      <c r="F54" s="90">
         <f>F47*$C$46</f>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="G54" s="92">
-        <f t="shared" ref="G54:K54" si="27">G47*$C$46</f>
+        <v>21920</v>
+      </c>
+      <c r="G54" s="90">
+        <f t="shared" ref="G54:K54" si="28">G47*$C$46</f>
         <v>16600</v>
       </c>
-      <c r="H54" s="85">
-        <f t="shared" si="27"/>
-        <v>8444.6666666666679</v>
-      </c>
-      <c r="I54" s="85">
-        <f t="shared" si="27"/>
-        <v>5805.7142857142853</v>
-      </c>
-      <c r="J54" s="92">
-        <f t="shared" si="27"/>
-        <v>15085.599999999999</v>
-      </c>
-      <c r="K54" s="95">
-        <f t="shared" si="27"/>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="L54" s="116"/>
+      <c r="H54" s="83">
+        <f t="shared" si="28"/>
+        <v>12666.666666666668</v>
+      </c>
+      <c r="I54" s="90">
+        <f t="shared" si="28"/>
+        <v>10160</v>
+      </c>
+      <c r="J54" s="90">
+        <f t="shared" si="28"/>
+        <v>18856.800000000003</v>
+      </c>
+      <c r="K54" s="93">
+        <f t="shared" si="28"/>
+        <v>21920</v>
+      </c>
+      <c r="L54" s="148"/>
       <c r="M54" s="18"/>
-      <c r="N54" s="45"/>
+      <c r="N54" s="43"/>
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
@@ -3221,143 +3229,137 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
       <c r="U54" s="18"/>
-      <c r="V54" s="102"/>
+      <c r="V54" s="100"/>
       <c r="W54" s="18"/>
       <c r="X54" s="18"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="119"/>
+      <c r="A55" s="146"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
+      <c r="K55" s="150"/>
+      <c r="L55" s="149"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="144"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="102"/>
+      <c r="S55" s="102"/>
+      <c r="T55" s="102"/>
+      <c r="U55" s="102"/>
+      <c r="V55" s="118"/>
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="105"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="142"/>
+      <c r="A56" s="143"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="157"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
-      <c r="N56" s="156" t="s">
+      <c r="N56" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="158" t="s">
+      <c r="O56" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="159"/>
-      <c r="Q56" s="129" t="s">
+      <c r="P56" s="138"/>
+      <c r="Q56" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="162" t="s">
+      <c r="R56" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="S56" s="158" t="s">
+      <c r="S56" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="T56" s="159"/>
+      <c r="T56" s="138"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="143"/>
+      <c r="A57" s="146"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="158"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="157" t="s">
+      <c r="N57" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="160"/>
-      <c r="P57" s="161"/>
-      <c r="Q57" s="130" t="s">
+      <c r="O57" s="139"/>
+      <c r="P57" s="140"/>
+      <c r="Q57" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="163"/>
-      <c r="S57" s="160" t="s">
+      <c r="R57" s="164"/>
+      <c r="S57" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="161"/>
+      <c r="T57" s="140"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
     </row>
     <row r="58" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="129" t="s">
+      <c r="C58" s="160"/>
+      <c r="D58" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="133" t="s">
+      <c r="E58" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="134"/>
-      <c r="G58" s="133" t="s">
+      <c r="F58" s="160"/>
+      <c r="G58" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="134"/>
+      <c r="H58" s="160"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="127"/>
-      <c r="O58" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="P58" s="130" t="s">
+      <c r="N58" s="109"/>
+      <c r="O58" s="155" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="137" t="s">
+      <c r="Q58" s="113"/>
+      <c r="R58" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="137" t="s">
+      <c r="S58" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="T58" s="130" t="s">
+      <c r="T58" s="112" t="s">
         <v>77</v>
       </c>
       <c r="U58" s="18"/>
@@ -3366,34 +3368,30 @@
       <c r="X58" s="18"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="126" t="s">
+      <c r="A59" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="135"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="130" t="s">
+      <c r="B59" s="161"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="135"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="135" t="s">
+      <c r="E59" s="161"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="136"/>
+      <c r="H59" s="162"/>
       <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="128"/>
-      <c r="O59" s="138"/>
-      <c r="P59" s="63" t="s">
+      <c r="N59" s="110"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="Q59" s="132"/>
-      <c r="R59" s="138"/>
-      <c r="S59" s="138"/>
-      <c r="T59" s="63" t="s">
+      <c r="Q59" s="114"/>
+      <c r="R59" s="156"/>
+      <c r="S59" s="156"/>
+      <c r="T59" s="61" t="s">
         <v>79</v>
       </c>
       <c r="U59" s="18"/>
@@ -3402,50 +3400,46 @@
       <c r="X59" s="18"/>
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="127"/>
-      <c r="B60" s="137" t="s">
+      <c r="A60" s="109"/>
+      <c r="B60" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="130" t="s">
+      <c r="C60" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="131"/>
-      <c r="E60" s="137" t="s">
+      <c r="D60" s="113"/>
+      <c r="E60" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="137" t="s">
+      <c r="F60" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="137" t="s">
+      <c r="G60" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="H60" s="130" t="s">
+      <c r="H60" s="112" t="s">
         <v>77</v>
       </c>
       <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="53">
+      <c r="N60" s="51">
         <v>8</v>
       </c>
-      <c r="O60" s="63">
+      <c r="O60" s="61">
         <v>2.25</v>
       </c>
-      <c r="P60" s="54">
+      <c r="P60" s="52">
         <v>35</v>
       </c>
-      <c r="Q60" s="54" t="s">
+      <c r="Q60" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="54">
+      <c r="R60" s="52">
         <v>679.7</v>
       </c>
-      <c r="S60" s="54">
+      <c r="S60" s="52">
         <v>302</v>
       </c>
-      <c r="T60" s="63">
+      <c r="T60" s="61">
         <v>15105</v>
       </c>
       <c r="U60" s="18"/>
@@ -3454,16 +3448,16 @@
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="128"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="63" t="s">
+      <c r="A61" s="110"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="132"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
-      <c r="G61" s="138"/>
-      <c r="H61" s="63" t="s">
+      <c r="D61" s="114"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="61" t="s">
         <v>79</v>
       </c>
       <c r="I61" s="18"/>
@@ -3471,25 +3465,25 @@
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
-      <c r="N61" s="53">
+      <c r="N61" s="51">
         <v>40</v>
       </c>
-      <c r="O61" s="54">
+      <c r="O61" s="52">
         <v>1.6</v>
       </c>
-      <c r="P61" s="63">
+      <c r="P61" s="61">
         <v>15</v>
       </c>
-      <c r="Q61" s="54" t="s">
+      <c r="Q61" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="54">
+      <c r="R61" s="52">
         <v>2574</v>
       </c>
-      <c r="S61" s="54">
+      <c r="S61" s="52">
         <v>1609</v>
       </c>
-      <c r="T61" s="54">
+      <c r="T61" s="52">
         <v>24131</v>
       </c>
       <c r="U61" s="18"/>
@@ -3502,57 +3496,55 @@
         <f>A44</f>
         <v>24</v>
       </c>
-      <c r="B62" s="54">
+      <c r="B62" s="52">
         <f>B44</f>
         <v>1.5</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="52">
         <f>C44</f>
         <v>60</v>
       </c>
-      <c r="D62" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="139">
+      <c r="D62" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="115">
         <f>E38</f>
         <v>415</v>
       </c>
-      <c r="F62" s="139">
+      <c r="F62" s="115">
         <f>C28</f>
         <v>16600</v>
       </c>
-      <c r="G62" s="139">
-        <f>H38</f>
+      <c r="G62" s="115">
         <v>277</v>
       </c>
-      <c r="H62" s="139">
+      <c r="H62" s="115">
         <f>G52</f>
         <v>16600</v>
       </c>
-      <c r="I62" s="18"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
       <c r="M62" s="18"/>
-      <c r="N62" s="53">
+      <c r="N62" s="51">
         <v>19</v>
       </c>
-      <c r="O62" s="54">
+      <c r="O62" s="52">
         <v>2.75</v>
       </c>
-      <c r="P62" s="54">
+      <c r="P62" s="52">
         <v>20</v>
       </c>
-      <c r="Q62" s="54" t="s">
+      <c r="Q62" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="R62" s="54">
+      <c r="R62" s="52">
         <v>1722</v>
       </c>
-      <c r="S62" s="54">
+      <c r="S62" s="52">
         <v>626</v>
       </c>
-      <c r="T62" s="54">
+      <c r="T62" s="52">
         <v>12524</v>
       </c>
       <c r="U62" s="18"/>
@@ -3562,40 +3554,38 @@
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14">
-        <f>A44</f>
+        <f t="shared" ref="A63:C64" si="29">A44</f>
         <v>24</v>
       </c>
-      <c r="B63" s="54">
-        <f>B44</f>
+      <c r="B63" s="52">
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
-      <c r="C63" s="54">
-        <f>C44</f>
+      <c r="C63" s="52">
+        <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="D63" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="139">
+      <c r="D63" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="115">
         <f>E39</f>
-        <v>471.42857142857144</v>
-      </c>
-      <c r="F63" s="139">
+        <v>471.42</v>
+      </c>
+      <c r="F63" s="115">
         <f>F28</f>
-        <v>18857</v>
-      </c>
-      <c r="G63" s="139">
-        <f>H39</f>
+        <v>23571</v>
+      </c>
+      <c r="G63" s="115">
         <v>314</v>
       </c>
-      <c r="H63" s="139">
+      <c r="H63" s="115">
         <f>J52</f>
-        <v>15085.599999999999</v>
-      </c>
-      <c r="I63" s="18"/>
+        <v>18856.800000000003</v>
+      </c>
+      <c r="I63" s="5"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
       <c r="O63" s="18"/>
@@ -3611,40 +3601,38 @@
     </row>
     <row r="64" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="14">
-        <f>A45</f>
+        <f t="shared" si="29"/>
         <v>29</v>
       </c>
-      <c r="B64" s="54">
-        <f>B45</f>
+      <c r="B64" s="52">
+        <f t="shared" si="29"/>
         <v>2.75</v>
       </c>
-      <c r="C64" s="54">
-        <f>C45</f>
+      <c r="C64" s="52">
+        <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="D64" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="139">
+      <c r="D64" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="115">
         <f>E40</f>
         <v>548</v>
       </c>
-      <c r="F64" s="139">
+      <c r="F64" s="115">
         <f>B28</f>
-        <v>12953</v>
-      </c>
-      <c r="G64" s="139">
-        <f>H40</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="H64" s="139">
+        <v>19180</v>
+      </c>
+      <c r="G64" s="115">
+        <v>199.27272727272728</v>
+      </c>
+      <c r="H64" s="115">
         <f>F53</f>
-        <v>8747.4805194805194</v>
-      </c>
-      <c r="I64" s="18"/>
+        <v>12952.727272727274</v>
+      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
@@ -3660,37 +3648,36 @@
     </row>
     <row r="65" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14">
-        <f>A45</f>
+        <f t="shared" ref="A65:C65" si="30">A45</f>
         <v>29</v>
       </c>
-      <c r="B65" s="54">
-        <f>B45</f>
+      <c r="B65" s="52">
+        <f t="shared" si="30"/>
         <v>2.75</v>
       </c>
-      <c r="C65" s="54">
-        <f>C45</f>
+      <c r="C65" s="52">
+        <f t="shared" si="30"/>
         <v>65</v>
       </c>
-      <c r="D65" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="139">
+      <c r="D65" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="115">
         <f>E41</f>
         <v>548</v>
       </c>
-      <c r="F65" s="139">
+      <c r="F65" s="115">
         <f>G28</f>
-        <v>12953</v>
-      </c>
-      <c r="G65" s="139">
-        <f>H41</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="H65" s="139">
+        <v>20475</v>
+      </c>
+      <c r="G65" s="115">
+        <v>199.27272727272728</v>
+      </c>
+      <c r="H65" s="115">
         <f>K53</f>
-        <v>8747.4805194805194</v>
-      </c>
-      <c r="I65" s="18"/>
+        <v>12952.727272727274</v>
+      </c>
+      <c r="I65" s="5"/>
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
@@ -3708,41 +3695,34 @@
       <c r="X65" s="18"/>
     </row>
     <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="53">
-        <f>A46</f>
-        <v>40</v>
-      </c>
-      <c r="B66" s="54">
-        <f>B46</f>
-        <v>1.25</v>
-      </c>
-      <c r="C66" s="54">
-        <f>C46</f>
-        <v>50</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="139">
-        <f>E37</f>
-        <v>316.66666666666669</v>
-      </c>
-      <c r="F66" s="139">
+      <c r="A66" s="51">
+        <v>29</v>
+      </c>
+      <c r="B66" s="52">
+        <v>2.75</v>
+      </c>
+      <c r="C66" s="52">
+        <v>65</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="115">
+        <v>254</v>
+      </c>
+      <c r="F66" s="115">
         <f>D28</f>
-        <v>12667</v>
-      </c>
-      <c r="G66" s="139">
-        <f>H37</f>
-        <v>168.89333333333335</v>
-      </c>
-      <c r="H66" s="139">
-        <f>H54</f>
-        <v>8444.6666666666679</v>
-      </c>
-      <c r="I66" s="18"/>
+        <v>19000</v>
+      </c>
+      <c r="G66" s="115">
+        <v>92</v>
+      </c>
+      <c r="H66" s="115">
+        <v>6004</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
@@ -3761,37 +3741,33 @@
         <f>A46</f>
         <v>40</v>
       </c>
-      <c r="B67" s="63">
+      <c r="B67" s="61">
         <f>B46</f>
         <v>1.25</v>
       </c>
-      <c r="C67" s="63">
+      <c r="C67" s="61">
         <f>C46</f>
         <v>50</v>
       </c>
-      <c r="D67" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="140">
-        <f>E36</f>
-        <v>254</v>
-      </c>
-      <c r="F67" s="140">
+      <c r="D67" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="116">
+        <v>317</v>
+      </c>
+      <c r="F67" s="116">
         <f>E28</f>
-        <v>10160</v>
-      </c>
-      <c r="G67" s="140">
-        <f>H36</f>
-        <v>116.11428571428571</v>
-      </c>
-      <c r="H67" s="140">
-        <f>I54</f>
-        <v>5805.7142857142853</v>
-      </c>
-      <c r="I67" s="18"/>
+        <v>17780</v>
+      </c>
+      <c r="G67" s="116">
+        <v>253.33333333333334</v>
+      </c>
+      <c r="H67" s="116">
+        <v>12667</v>
+      </c>
+      <c r="I67" s="5"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
@@ -3815,9 +3791,6 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
@@ -3841,9 +3814,6 @@
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
@@ -3867,9 +3837,6 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
@@ -3893,9 +3860,6 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
@@ -3919,9 +3883,6 @@
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
@@ -4071,7 +4032,6 @@
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -4097,7 +4057,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="134"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -4123,7 +4083,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="134"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -4396,10 +4356,10 @@
       <c r="H108" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="E36:E41">
-    <sortCondition ref="E36:E41"/>
+  <sortState ref="I62:K67">
+    <sortCondition ref="J62:J67"/>
   </sortState>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="R56:R57"/>
     <mergeCell ref="S56:T56"/>
     <mergeCell ref="S57:T57"/>
@@ -4411,16 +4371,12 @@
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="A56:H57"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A42:C42"/>
     <mergeCell ref="B58:C59"/>
     <mergeCell ref="E58:F59"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A47:D55"/>
     <mergeCell ref="E48:L50"/>
     <mergeCell ref="L51:L55"/>
@@ -4429,9 +4385,17 @@
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
     <mergeCell ref="K34:L41"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="S28" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4460,7 +4424,7 @@
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="2:13" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74">
+      <c r="B2" s="72">
         <v>700</v>
       </c>
       <c r="C2" s="11">
@@ -4475,7 +4439,7 @@
         <f t="shared" ref="E2:E31" si="0">(B2*D2)/C2</f>
         <v>4900</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="J2" s="15"/>
@@ -4490,7 +4454,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="75">
+      <c r="B3" s="73">
         <v>800</v>
       </c>
       <c r="C3" s="11">
@@ -4505,22 +4469,22 @@
         <f t="shared" si="0"/>
         <v>5600</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="J3" s="15"/>
       <c r="K3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>5</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="50">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="75">
+      <c r="B4" s="73">
         <v>700</v>
       </c>
       <c r="C4" s="11">
@@ -4535,22 +4499,22 @@
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="51">
         <v>6</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="52">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="75">
+      <c r="B5" s="73">
         <v>170</v>
       </c>
       <c r="C5" s="11">
@@ -4565,22 +4529,22 @@
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="15"/>
       <c r="K5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="51">
         <v>9</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="52">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="75">
+      <c r="B6" s="73">
         <v>370</v>
       </c>
       <c r="C6" s="11">
@@ -4595,7 +4559,7 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="55">
         <f>SUM(E2:E6)</f>
         <v>19180</v>
       </c>
@@ -4605,15 +4569,15 @@
       <c r="K6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="51">
         <v>10</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="52">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="74">
+      <c r="B7" s="72">
         <v>500</v>
       </c>
       <c r="C7" s="25">
@@ -4628,7 +4592,7 @@
         <f t="shared" si="0"/>
         <v>3333.3333333333335</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="J7" s="15"/>
@@ -4638,12 +4602,12 @@
       <c r="L7" s="14">
         <v>7</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="75">
+      <c r="B8" s="73">
         <v>240</v>
       </c>
       <c r="C8" s="12">
@@ -4658,22 +4622,22 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="J8" s="15"/>
       <c r="K8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="51">
         <v>4</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="52">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="75">
+      <c r="B9" s="73">
         <v>450</v>
       </c>
       <c r="C9" s="12">
@@ -4688,14 +4652,14 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
       <c r="J9" s="15"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="75">
+      <c r="B10" s="73">
         <v>480</v>
       </c>
       <c r="C10" s="12">
@@ -4710,14 +4674,14 @@
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="J10" s="15"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="75">
+      <c r="B11" s="73">
         <v>820</v>
       </c>
       <c r="C11" s="26">
@@ -4732,7 +4696,7 @@
         <f t="shared" si="0"/>
         <v>5466.666666666667</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="55">
         <f>SUM(E7:E11)</f>
         <v>16600</v>
       </c>
@@ -4742,7 +4706,7 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="74">
+      <c r="B12" s="72">
         <v>800</v>
       </c>
       <c r="C12" s="25">
@@ -4757,14 +4721,14 @@
         <f t="shared" si="0"/>
         <v>5333.333333333333</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="J12" s="15"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="75">
+      <c r="B13" s="73">
         <v>270</v>
       </c>
       <c r="C13" s="12">
@@ -4779,14 +4743,14 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
       <c r="J13" s="15"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75">
+      <c r="B14" s="73">
         <v>480</v>
       </c>
       <c r="C14" s="12">
@@ -4801,14 +4765,14 @@
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="J14" s="15"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="75">
+      <c r="B15" s="73">
         <v>450</v>
       </c>
       <c r="C15" s="12">
@@ -4823,14 +4787,14 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="J15" s="15"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="75">
+      <c r="B16" s="73">
         <v>850</v>
       </c>
       <c r="C16" s="26">
@@ -4845,7 +4809,7 @@
         <f t="shared" si="0"/>
         <v>5666.666666666667</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="55">
         <f>SUM(E12:E16)</f>
         <v>19000</v>
       </c>
@@ -4855,7 +4819,7 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="74">
+      <c r="B17" s="72">
         <v>600</v>
       </c>
       <c r="C17" s="25">
@@ -4870,7 +4834,7 @@
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="J17" s="15"/>
@@ -4902,7 +4866,7 @@
       <c r="AK17" s="16"/>
     </row>
     <row r="18" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="75">
+      <c r="B18" s="73">
         <v>700</v>
       </c>
       <c r="C18" s="12">
@@ -4917,7 +4881,7 @@
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="J18" s="16"/>
@@ -4949,7 +4913,7 @@
       <c r="AK18" s="17"/>
     </row>
     <row r="19" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="75">
+      <c r="B19" s="73">
         <v>700</v>
       </c>
       <c r="C19" s="12">
@@ -4964,14 +4928,14 @@
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="J19" s="15"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="75">
+      <c r="B20" s="73">
         <v>170</v>
       </c>
       <c r="C20" s="12">
@@ -4986,7 +4950,7 @@
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="J20" s="15"/>
@@ -4996,7 +4960,7 @@
       </c>
     </row>
     <row r="21" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="75">
+      <c r="B21" s="73">
         <v>370</v>
       </c>
       <c r="C21" s="26">
@@ -5011,7 +4975,7 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="55">
         <f>SUM(E17:E21)</f>
         <v>17780</v>
       </c>
@@ -5021,7 +4985,7 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="74">
+      <c r="B22" s="72">
         <v>550</v>
       </c>
       <c r="C22" s="25">
@@ -5036,14 +5000,14 @@
         <f t="shared" si="0"/>
         <v>3928.5714285714284</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
       <c r="J22" s="16"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="75">
+      <c r="B23" s="73">
         <v>750</v>
       </c>
       <c r="C23" s="12">
@@ -5058,14 +5022,14 @@
         <f t="shared" si="0"/>
         <v>5357.1428571428569</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="J23" s="16"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="75">
+      <c r="B24" s="73">
         <v>600</v>
       </c>
       <c r="C24" s="12">
@@ -5080,14 +5044,14 @@
         <f t="shared" si="0"/>
         <v>4285.7142857142853</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="J24" s="16"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="75">
+      <c r="B25" s="73">
         <v>700</v>
       </c>
       <c r="C25" s="12">
@@ -5102,14 +5066,14 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="75">
+      <c r="B26" s="73">
         <v>700</v>
       </c>
       <c r="C26" s="26">
@@ -5124,7 +5088,7 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="55">
         <f>SUM(E22:E26)</f>
         <v>23571.428571428572</v>
       </c>
@@ -5134,7 +5098,7 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="74">
+      <c r="B27" s="72">
         <v>200</v>
       </c>
       <c r="C27" s="25">
@@ -5149,14 +5113,14 @@
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="75">
+      <c r="B28" s="73">
         <v>700</v>
       </c>
       <c r="C28" s="12">
@@ -5171,14 +5135,14 @@
         <f t="shared" si="0"/>
         <v>6125</v>
       </c>
-      <c r="F28" s="59"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="75">
+      <c r="B29" s="73">
         <v>600</v>
       </c>
       <c r="C29" s="12">
@@ -5193,14 +5157,14 @@
         <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="F29" s="59"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="75">
+      <c r="B30" s="73">
         <v>330</v>
       </c>
       <c r="C30" s="12">
@@ -5215,12 +5179,12 @@
         <f t="shared" si="0"/>
         <v>2887.5</v>
       </c>
-      <c r="F30" s="59"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="75">
+      <c r="B31" s="73">
         <v>510</v>
       </c>
       <c r="C31" s="26">
@@ -5235,7 +5199,7 @@
         <f t="shared" si="0"/>
         <v>4462.5</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="55">
         <f>SUM(E27:E31)</f>
         <v>20475</v>
       </c>
